--- a/data/coded_segments/zm_4_1.xlsx
+++ b/data/coded_segments/zm_4_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D4016D-F03C-F14E-BF26-B7E4457274F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F41E46-70C5-1B46-9C68-3F64A37CB86B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
